--- a/spliced/walkingToRunning/2023-03-24_10-03-17/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-03-17/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1449330214943292</v>
+        <v>-0.4692756063703969</v>
       </c>
       <c r="B2" t="n">
-        <v>1.165589673178594</v>
+        <v>-2.234323765550341</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2754184092794358</v>
+        <v>0.2831644466944987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.144946085555223</v>
+        <v>0.5019868420703071</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.092144768578668</v>
+        <v>-2.09162780216762</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.065853960173481</v>
+        <v>-3.543231316975185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.411846300108097</v>
+        <v>2.689777469634955</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.998377110842354</v>
+        <v>-1.050217630181979</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.209750396864759</v>
+        <v>-0.7848469325474046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.357690974644261</v>
+        <v>-6.342504692077637</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8570090349231524</v>
+        <v>1.490384888648992</v>
       </c>
       <c r="C5" t="n">
-        <v>1.883484615598408</v>
+        <v>3.834645700454709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.860037258693148</v>
+        <v>-5.673670666558469</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.044664865732181</v>
+        <v>3.692834442002409</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.950326073169695</v>
+        <v>2.466138475707613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.702425773430137</v>
+        <v>3.314056737082347</v>
       </c>
       <c r="B7" t="n">
-        <v>6.032992362976163</v>
+        <v>6.166058949061821</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.296660602092725</v>
+        <v>0.5118652531078883</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3126779377369045</v>
+        <v>2.383262787546406</v>
       </c>
       <c r="B8" t="n">
-        <v>6.479121286528331</v>
+        <v>-4.818590433469862</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.585693658249726</v>
+        <v>0.4682122468948429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.2245405282293</v>
+        <v>8.378727106537124</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.543206473759242</v>
+        <v>0.4666124773877008</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.580262565612791</v>
+        <v>-1.115668596540174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.617181776251111</v>
+        <v>-0.3396976134606717</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.125919693495542</v>
+        <v>0.4775580519012043</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1643911872591244</v>
+        <v>1.77553138222013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.971336638927448</v>
+        <v>-5.64267150844849</v>
       </c>
       <c r="B11" t="n">
-        <v>1.658574864268297</v>
+        <v>3.583157830578955</v>
       </c>
       <c r="C11" t="n">
-        <v>5.434939258439194</v>
+        <v>3.719863629341134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.956257096358723</v>
+        <v>-1.766980731487296</v>
       </c>
       <c r="B12" t="n">
-        <v>7.306268368448494</v>
+        <v>16.75916714668267</v>
       </c>
       <c r="C12" t="n">
-        <v>4.086458946977384</v>
+        <v>-0.6191982626914752</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.8198845863342561</v>
+        <v>1.7845652954919</v>
       </c>
       <c r="B13" t="n">
-        <v>11.12434749603274</v>
+        <v>-3.40247355188642</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.147062941959883</v>
+        <v>4.17544686794281</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.935701674222974</v>
+        <v>8.421752619743332</v>
       </c>
       <c r="B14" t="n">
-        <v>2.147919416427764</v>
+        <v>-2.540225854941783</v>
       </c>
       <c r="C14" t="n">
-        <v>-10.2126766681671</v>
+        <v>-3.182726718698209</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2389882990292007</v>
+        <v>0.1595347711017858</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.616005550112014</v>
+        <v>-0.04787222487585119</v>
       </c>
       <c r="C15" t="n">
-        <v>-8.156579332692241</v>
+        <v>1.229899188450423</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.526702780382972</v>
+        <v>-3.870756162064419</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.326455611842019</v>
+        <v>2.866504958271982</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5443786570003977</v>
+        <v>3.126545447962625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.8731935024261477</v>
+        <v>-3.578196597099306</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.6492596694401325</v>
+        <v>14.92317203113009</v>
       </c>
       <c r="C17" t="n">
-        <v>2.44735940865108</v>
+        <v>-0.7331702096121586</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-4.709237475054613</v>
+        <v>0.1684449655669233</v>
       </c>
       <c r="B18" t="n">
-        <v>6.562261234010962</v>
+        <v>-0.0544045226915344</v>
       </c>
       <c r="C18" t="n">
-        <v>2.4601501447814</v>
+        <v>0.7549586423805885</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.5285803828919924</v>
+        <v>9.868156909942579</v>
       </c>
       <c r="B19" t="n">
-        <v>10.79857470648639</v>
+        <v>-0.5477856159210392</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.973240453856401</v>
+        <v>-1.925824952125532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.850714295251004</v>
+        <v>0.4101533753531434</v>
       </c>
       <c r="B20" t="n">
-        <v>12.26201233182615</v>
+        <v>-0.5063240064041949</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.182716676167052</v>
+        <v>1.204618217263898</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.128158664703387</v>
+        <v>-4.432378809792649</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.566282844543414</v>
+        <v>1.422139526265</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.598254120349853</v>
+        <v>3.637724219049721</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1461163333484263</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9.942505402224434</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5480119875499323</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.381819248199463</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-3.363096782139367</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9756205422537669</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5.626129477364711</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.49930441464691</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.115894814900024</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.154986371312843</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.3653818828718969</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.201646787779655</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-3.968483030796053</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.245044922828678</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.008097422122955</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.9093820844377891</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8.189985391071852</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.7311917849949312</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1449330214943292</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.165589673178594</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.2754184092794358</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.144946085555223</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-6.092144768578668</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.065853960173481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.411846300108097</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.998377110842354</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.209750396864759</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.357690974644261</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8570090349231524</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.883484615598408</v>
       </c>
     </row>
   </sheetData>
